--- a/data/Section 3/3.5 API Security Testing/19 API Security Testing- Effectiveness.xlsx
+++ b/data/Section 3/3.5 API Security Testing/19 API Security Testing- Effectiveness.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft15392477-my.sharepoint.com/personal/nitin_acharekar_smartvalyou_ai/Documents/Survey Report/Section 3/3.5 API Security Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorgft15392477-my.sharepoint.com/personal/nitin_acharekar_smartvalyou_ai/Documents/Survey Report/Survey Report Agent/surveyreport/data/Section 3/3.5 API Security Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{07E94FDF-03FF-405F-A6F0-AF6EED730C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DDA436-BBDA-4853-92C1-48CA64C29165}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{07E94FDF-03FF-405F-A6F0-AF6EED730C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8547797-DB1B-4F74-96A8-63B05A98CCA8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34EB807C-7622-4AB0-8544-24CD6F22A713}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Extremely Effective </t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +253,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7BE04CB-92F0-4A01-8A15-34F93CA15EBB}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{E7BE04CB-92F0-4A01-8A15-34F93CA15EBB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4D7D37A2-33E4-4A96-97D4-AD05589FD6CE}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{88151BED-7952-4190-9641-998704E7A5BC}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29615,63 +29632,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D26D63C-4FE0-4A79-A430-6B809C2770BC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>